--- a/Seance-03/src/data/surface_categorisee.xlsx
+++ b/Seance-03/src/data/surface_categorisee.xlsx
@@ -434,9 +434,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Surface_cat</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Surface_cat</t>
+          <t>count</t>
         </is>
       </c>
     </row>
